--- a/hutool-poi/src/test/resources/blankAndDateTest.xlsx
+++ b/hutool-poi/src/test/resources/blankAndDateTest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29C7DC-3B9B-4C63-9E9C-8DE951E25FDD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -118,74 +119,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,14 +131,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -273,6 +206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,21 +450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -517,7 +484,7 @@
         <v>43085</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -531,10 +498,7 @@
         <v>43086</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -548,7 +512,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -568,7 +532,7 @@
         <v>43088</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -585,7 +549,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -602,7 +566,7 @@
         <v>43090</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -622,7 +586,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -642,7 +606,7 @@
         <v>43092</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -662,7 +626,7 @@
         <v>43093</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -682,7 +646,7 @@
         <v>43094</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -702,7 +666,7 @@
         <v>43095</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -722,7 +686,7 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -742,7 +706,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -762,7 +726,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -779,7 +743,7 @@
         <v>43099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -794,7 +758,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -811,12 +775,12 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -824,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>

--- a/hutool-poi/src/test/resources/blankAndDateTest.xlsx
+++ b/hutool-poi/src/test/resources/blankAndDateTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29C7DC-3B9B-4C63-9E9C-8DE951E25FDD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B791B03F-4AD8-4A3A-935F-88BAEC49B9A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -587,9 +587,6 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -602,9 +599,7 @@
       <c r="E8">
         <v>1118</v>
       </c>
-      <c r="F8" s="3">
-        <v>43092</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
